--- a/data/Indo_data.xlsx
+++ b/data/Indo_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansve\Coding\Projects-DataScience\2021.01.04_Bali_Covid_App\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB1925F-C716-4346-BFDE-868BC1643B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CFE8B6-D39F-4000-AA9D-CB315A7D9295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="432" windowWidth="13332" windowHeight="10704" xr2:uid="{00225A89-5B5C-4897-8A06-A73BAAE0A574}"/>
+    <workbookView xWindow="9300" yWindow="432" windowWidth="13332" windowHeight="10704" xr2:uid="{00225A89-5B5C-4897-8A06-A73BAAE0A574}"/>
   </bookViews>
   <sheets>
     <sheet name="Bali and Indo" sheetId="6" r:id="rId1"/>
@@ -364,7 +364,7 @@
     <numFmt numFmtId="165" formatCode="d&quot;-&quot;mmm"/>
     <numFmt numFmtId="166" formatCode="###0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,11 +377,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -392,6 +394,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -403,12 +406,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -526,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,7 +558,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -574,47 +571,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,11 +656,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B963E8-B121-4255-B1DA-68C57ADF4D95}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1030,7 +1030,7 @@
       <c r="Q1" s="39"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="3">
+      <c r="A2" s="50">
         <v>44197</v>
       </c>
       <c r="B2" s="5">
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="3">
+      <c r="A3" s="50">
         <v>44198</v>
       </c>
       <c r="B3" s="5">
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="3">
+      <c r="A4" s="50">
         <v>44199</v>
       </c>
       <c r="B4" s="5">
@@ -1126,7 +1126,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="3">
+      <c r="A5" s="50">
         <v>44200</v>
       </c>
       <c r="B5" s="5">
@@ -1158,7 +1158,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="3">
+      <c r="A6" s="50">
         <v>44201</v>
       </c>
       <c r="B6" s="5">
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="3">
+      <c r="A7" s="50">
         <v>44202</v>
       </c>
       <c r="B7" s="5">
@@ -1222,7 +1222,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="3">
+      <c r="A8" s="50">
         <v>44203</v>
       </c>
       <c r="B8" s="5">
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="3">
+      <c r="A9" s="50">
         <v>44204</v>
       </c>
       <c r="B9" s="5">
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="3">
+      <c r="A10" s="50">
         <v>44205</v>
       </c>
       <c r="B10" s="5">
@@ -1318,7 +1318,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="3">
+      <c r="A11" s="50">
         <v>44206</v>
       </c>
       <c r="B11" s="5">
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="3">
+      <c r="A12" s="50">
         <v>44207</v>
       </c>
       <c r="B12" s="5">
@@ -1382,7 +1382,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="3">
+      <c r="A13" s="50">
         <v>44208</v>
       </c>
       <c r="B13" s="5">
@@ -1414,7 +1414,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="3">
+      <c r="A14" s="50">
         <v>44209</v>
       </c>
       <c r="B14" s="5">
@@ -1446,7 +1446,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="3">
+      <c r="A15" s="50">
         <v>44210</v>
       </c>
       <c r="B15" s="5">
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="3">
+      <c r="A16" s="50">
         <v>44211</v>
       </c>
       <c r="B16" s="5">
@@ -1510,7 +1510,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="3">
+      <c r="A17" s="50">
         <v>44212</v>
       </c>
       <c r="B17" s="5">
@@ -1542,7 +1542,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="3">
+      <c r="A18" s="50">
         <v>44213</v>
       </c>
       <c r="B18" s="5">
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="3">
+      <c r="A19" s="50">
         <v>44214</v>
       </c>
       <c r="B19" s="5">
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3">
+      <c r="A20" s="50">
         <v>44197</v>
       </c>
       <c r="B20" s="20">
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3">
+      <c r="A21" s="50">
         <v>44198</v>
       </c>
       <c r="B21" s="20">
@@ -1670,7 +1670,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3">
+      <c r="A22" s="50">
         <v>44199</v>
       </c>
       <c r="B22" s="20">
@@ -1702,7 +1702,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="3">
+      <c r="A23" s="50">
         <v>44200</v>
       </c>
       <c r="B23" s="20">
@@ -1734,7 +1734,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="3">
+      <c r="A24" s="50">
         <v>44201</v>
       </c>
       <c r="B24" s="20">
@@ -1766,7 +1766,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="3">
+      <c r="A25" s="50">
         <v>44202</v>
       </c>
       <c r="B25" s="20">
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="3">
+      <c r="A26" s="50">
         <v>44203</v>
       </c>
       <c r="B26" s="20">
@@ -1830,7 +1830,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="3">
+      <c r="A27" s="50">
         <v>44204</v>
       </c>
       <c r="B27" s="20">
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="3">
+      <c r="A28" s="50">
         <v>44205</v>
       </c>
       <c r="B28" s="20">
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="3">
+      <c r="A29" s="50">
         <v>44206</v>
       </c>
       <c r="B29" s="20">
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="3">
+      <c r="A30" s="50">
         <v>44207</v>
       </c>
       <c r="B30" s="20">
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="3">
+      <c r="A31" s="50">
         <v>44208</v>
       </c>
       <c r="B31" s="20">
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="3">
+      <c r="A32" s="50">
         <v>44209</v>
       </c>
       <c r="B32" s="20">
@@ -2022,7 +2022,7 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="3">
+      <c r="A33" s="50">
         <v>44210</v>
       </c>
       <c r="B33" s="20">
@@ -2054,7 +2054,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="3">
+      <c r="A34" s="50">
         <v>44211</v>
       </c>
       <c r="B34" s="20">
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="3">
+      <c r="A35" s="50">
         <v>44212</v>
       </c>
       <c r="B35" s="20">
@@ -2118,7 +2118,7 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="3">
+      <c r="A36" s="50">
         <v>44213</v>
       </c>
       <c r="B36" s="20">
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="3">
+      <c r="A37" s="50">
         <v>44214</v>
       </c>
       <c r="B37" s="20">
